--- a/data/RD/仪表盘-研发组-10-3.xlsx
+++ b/data/RD/仪表盘-研发组-10-3.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="0" windowWidth="18250" windowHeight="7880"/>
+    <workbookView xWindow="2850" yWindow="0" windowWidth="18250" windowHeight="7880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -508,12 +508,13 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">

--- a/data/RD/仪表盘-研发组-10-3.xlsx
+++ b/data/RD/仪表盘-研发组-10-3.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jupyter\data\RD\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="0" windowWidth="18250" windowHeight="7880"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+  <si>
+    <t>负责人</t>
+  </si>
   <si>
     <t>组别</t>
   </si>
   <si>
+    <t>日期</t>
+  </si>
+  <si>
     <t>总下单数</t>
   </si>
   <si>
@@ -111,6 +112,9 @@
     <t>谢德健</t>
   </si>
   <si>
+    <t>转录调控组</t>
+  </si>
+  <si>
     <t>张守伟</t>
   </si>
   <si>
@@ -127,26 +131,24 @@
   </si>
   <si>
     <t>昶吉阳</t>
-  </si>
-  <si>
-    <t>转录调控组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,22 +158,352 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -194,9 +526,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -204,17 +778,61 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -499,71 +1117,74 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.725" customWidth="1"/>
+    <col min="10" max="11" width="9.63333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -598,13 +1219,13 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -639,13 +1260,13 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -680,13 +1301,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -721,13 +1342,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -762,13 +1383,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -803,13 +1424,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -844,13 +1465,13 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -885,13 +1506,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -926,13 +1547,13 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -967,13 +1588,13 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -1008,13 +1629,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>7</v>
@@ -1049,13 +1670,13 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -1090,13 +1711,13 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -1131,13 +1752,13 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -1172,13 +1793,13 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1213,13 +1834,13 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -1254,13 +1875,13 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -1295,13 +1916,13 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -1336,13 +1957,13 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -1377,13 +1998,13 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -1418,13 +2039,13 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1458,8 +2079,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>